--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,25 +78,17 @@
     <t>Task3</t>
   </si>
   <si>
-    <t>tas1</t>
-  </si>
-  <si>
-    <t>tas2</t>
-  </si>
-  <si>
-    <t>tas3</t>
-  </si>
-  <si>
     <t>Task4</t>
   </si>
   <si>
-    <t>att1</t>
-  </si>
-  <si>
-    <t>att2</t>
-  </si>
-  <si>
-    <t>att3</t>
+    <t>Task1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackNpc1</t>
+  </si>
+  <si>
+    <t>DropBag_1</t>
   </si>
 </sst>
 </file>
@@ -153,7 +145,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -205,7 +201,7 @@
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="TaskName" name="TaskName">
+    <tableColumn id="2" uniqueName="TaskName" name="TaskName" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@TaskName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Type" name="Type">
@@ -503,7 +499,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -564,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -578,14 +574,16 @@
       <c r="I2">
         <v>110</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -594,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -608,26 +606,28 @@
       <c r="I3">
         <v>220</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -638,7 +638,9 @@
       <c r="I4">
         <v>330</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -1,72 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Task" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Task" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NextTaskID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KillMonsterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KillCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LevelReq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AwardExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AwardGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AwardPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>任务类别</t>
+  </si>
+  <si>
+    <t>下一个任务ID</t>
+  </si>
+  <si>
+    <t>要求杀的怪，逗号分开</t>
+  </si>
+  <si>
+    <t>要求杀的怪数量，逗号分开</t>
+  </si>
+  <si>
+    <t>任务限制等级</t>
+  </si>
+  <si>
+    <t>奖励的经验</t>
+  </si>
+  <si>
+    <t>奖励的金币</t>
+  </si>
+  <si>
+    <t>奖励包</t>
+  </si>
+  <si>
+    <t>任务描述</t>
   </si>
   <si>
     <t>Task1</t>
@@ -75,52 +105,395 @@
     <t>Task2</t>
   </si>
   <si>
+    <t>AttackNpc1</t>
+  </si>
+  <si>
+    <t>DropBag_1</t>
+  </si>
+  <si>
     <t>Task3</t>
   </si>
   <si>
     <t>Task4</t>
-  </si>
-  <si>
-    <t>Task1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackNpc1</t>
-  </si>
-  <si>
-    <t>DropBag_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,109 +501,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
-</file>
-
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="TaskName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Type" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="NextTaskID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="KillMonsterName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="KillCount" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="LevelReq" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardExp" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardGold" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardPack" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J4"/>
-  <tableColumns count="10">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="TaskName" name="TaskName" dataDxfId="0">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@TaskName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Type" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="NextTaskID" name="NextTaskID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@NextTaskID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="KillMonsterName" name="KillMonsterName">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@KillMonsterName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="KillCount" name="KillCount">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@KillCount" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="LevelReq" name="LevelReq">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@LevelReq" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="AwardExp" name="AwardExp">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardExp" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="AwardGold" name="AwardGold">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="AwardPack" name="AwardPack">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardPack" xmlDataType="string"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,167 +1071,352 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="H8">
         <v>110</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="H9">
         <v>220</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="G10">
         <v>300</v>
       </c>
-      <c r="I4">
+      <c r="H10">
         <v>330</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -122,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,39 +136,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,8 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,94 +267,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,19 +317,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,25 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,140 +501,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -502,13 +511,107 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,7 +629,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,21 +644,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -580,22 +668,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,159 +703,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1080,7 +1200,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,71 +1216,71 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1192,7 +1312,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1224,7 +1344,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1256,7 +1376,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1287,49 +1407,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:10">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E8">
@@ -1344,24 +1464,24 @@
       <c r="H8">
         <v>110</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E9">
@@ -1376,24 +1496,24 @@
       <c r="H9">
         <v>220</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
@@ -1408,10 +1528,10 @@
       <c r="H10">
         <v>330</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="10" t="s">
         <v>29</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>任务类别</t>
@@ -122,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,75 +149,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,14 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -242,55 +252,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,212 +319,197 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,62 +528,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,26 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,197 +625,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1197,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1216,71 +1125,71 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="b">
@@ -1312,7 +1221,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="b">
@@ -1344,7 +1253,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="b">
@@ -1376,7 +1285,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:10">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="b">
@@ -1407,135 +1316,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:10">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>110</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>200</v>
-      </c>
-      <c r="H9">
-        <v>220</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
+      <c r="A10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>300</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>330</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="I11" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 C7:J7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Task" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Task" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -123,18 +136,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,152 +160,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,194 +180,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -527,251 +204,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,58 +227,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1104,27 +497,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1220,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1316,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:10">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1348,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:10">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +877,6 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Task.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -131,17 +131,21 @@
   </si>
   <si>
     <t>Task4</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,8 +153,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +163,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -228,13 +238,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,27 +511,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -614,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -646,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -678,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -710,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -742,138 +755,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>110</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12">
+        <v>330</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 C7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
